--- a/biology/Zoologie/Eublepharis/Eublepharis.xlsx
+++ b/biology/Zoologie/Eublepharis/Eublepharis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eublepharis est un genre de gecko de la famille des Eublepharidae[1]. Les espèces de ce genre sont parfois appelées Geckos à paupières
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eublepharis est un genre de gecko de la famille des Eublepharidae. Les espèces de ce genre sont parfois appelées Geckos à paupières
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les six espèces de ce genre se rencontrent au Moyen-Orient et en Asie du Sud[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les six espèces de ce genre se rencontrent au Moyen-Orient et en Asie du Sud.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des geckos terrestres et nocturnes.
 Comme leur nom de geckos à paupières l'indique, ils possèdent des paupières mobiles, à l'inverse des autres geckos qui, comme les serpents, ont une écaille transparente sur l'œil.
@@ -576,9 +592,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (29 mars 2015)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (29 mars 2015) :
 Eublepharis angramainyu Anderson &amp; Leviton, 1966
 Eublepharis fuscus Börner, 1974
 Eublepharis hardwickii Gray, 1827
@@ -612,7 +630,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Gray, 1827 : A Synopsis of the Genera of Saurian Reptiles in which some new Genera are indicated, and the others reviewed by actual Examination. The Philosophical Magazine or Annals of Chemistry, Mathematics, Astronomy, Natural History and General Science, vol. 2, no 7, p. 54-58 (texte intégral).</t>
         </is>
